--- a/projects/psp/refined_data/evb_chart.xlsx
+++ b/projects/psp/refined_data/evb_chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="720" windowWidth="26800" windowHeight="18340" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="1140" windowWidth="26800" windowHeight="18340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="jvb_pivot.csv (2)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>join_year</t>
   </si>
@@ -40,19 +40,19 @@
     <t>joined while due</t>
   </si>
   <si>
-    <t>1-2 Years Old</t>
+    <t>exp_year</t>
   </si>
   <si>
-    <t>3-5 Years Old</t>
+    <t>under 1 yr old</t>
   </si>
   <si>
-    <t>&gt; 5 Years Old</t>
+    <t>1-2 yrs old</t>
   </si>
   <si>
-    <t>&lt; 1 Year Old</t>
+    <t>3-5 yrs old</t>
   </si>
   <si>
-    <t>Still Due</t>
+    <t>5+ yrs old</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2800" baseline="0"/>
-              <a:t> Age When Member Joined</a:t>
+              <a:t> Age When Membership Expired / Expires</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="2800"/>
           </a:p>
@@ -205,7 +205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Still Due</c:v>
+                  <c:v>under 1 yr old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -248,25 +248,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>434.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>595.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>565.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>672.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>718.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>767.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>396.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,7 +281,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&lt; 1 Year Old</c:v>
+                  <c:v>1-2 yrs old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -324,25 +324,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>68.0</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.0</c:v>
+                  <c:v>262.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.0</c:v>
+                  <c:v>321.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.0</c:v>
+                  <c:v>365.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.0</c:v>
+                  <c:v>394.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.0</c:v>
+                  <c:v>459.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.0</c:v>
+                  <c:v>1487.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,7 +357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1-2 Years Old</c:v>
+                  <c:v>3-5 yrs old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -400,25 +400,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>165.0</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.0</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>137.0</c:v>
+                  <c:v>271.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.0</c:v>
+                  <c:v>285.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.0</c:v>
+                  <c:v>314.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138.0</c:v>
+                  <c:v>338.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.0</c:v>
+                  <c:v>1192.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,7 +433,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3-5 Years Old</c:v>
+                  <c:v>5+ yrs old</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -476,101 +476,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>223.0</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213.0</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>179.0</c:v>
+                  <c:v>324.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.0</c:v>
+                  <c:v>344.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.0</c:v>
+                  <c:v>398.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.0</c:v>
+                  <c:v>475.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'jvb_pivot.csv (2)'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt; 5 Years Old</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'jvb_pivot.csv (2)'!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'jvb_pivot.csv (2)'!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>381.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>312.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>299.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>118.0</c:v>
+                  <c:v>2051.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,13 +590,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1019,379 +943,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="10.83203125" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>434</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="E2">
-        <v>223</v>
-      </c>
-      <c r="F2">
-        <v>392</v>
-      </c>
-      <c r="G2">
-        <f>+SUM(B2:F2)</f>
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>595</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="D3">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="E3">
-        <v>213</v>
-      </c>
-      <c r="F3">
-        <v>381</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">+SUM(B3:F3)</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>565</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="D4">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="E4">
-        <v>179</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>672</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>285</v>
       </c>
       <c r="E5">
-        <v>157</v>
-      </c>
-      <c r="F5">
-        <v>312</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>718</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="E6">
-        <v>143</v>
-      </c>
-      <c r="F6">
-        <v>320</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>767</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>459</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="E7">
-        <v>151</v>
-      </c>
-      <c r="F7">
-        <v>299</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>396</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>1487</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>1192</v>
       </c>
       <c r="E8">
-        <v>63</v>
-      </c>
-      <c r="F8">
-        <v>118</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="1">
-        <f>+B2/$G2</f>
-        <v>0.33853354134165364</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ref="C12:F12" si="1">+C2/$G2</f>
-        <v>5.3042121684867397E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12870514820592824</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.17394695787831513</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30577223088923555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:F18" si="2">+B3/$G3</f>
-        <v>0.41034482758620688</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>7.379310344827586E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10620689655172413</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14689655172413793</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.26275862068965516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.44453186467348543</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="2"/>
-        <v>7.0810385523210076E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10778914240755311</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14083398898505115</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23603461841070023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.48766328011611032</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2728592162554432E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9259796806966621E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11393323657474601</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22641509433962265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50742049469964667</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="2"/>
-        <v>7.0671378091872794E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>9.4699646643109536E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10106007067137809</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22614840989399293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.52141400407885796</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8857919782460914E-2</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>9.3813732154996596E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1026512576478586</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20326308633582596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.57060518731988474</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="2"/>
-        <v>8.9337175792507204E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9250720461095103E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>9.077809798270893E-2</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17002881844380405</v>
-      </c>
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
